--- a/data/trans_bre/P2A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>12.74939720598048</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.625563876315464</v>
+        <v>5.625563876315487</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2952844358362256</v>
@@ -649,7 +649,7 @@
         <v>0.2412744132304359</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1291184758450823</v>
+        <v>0.1291184758450828</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.334376321489392</v>
+        <v>8.907622149171592</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.404382071741689</v>
+        <v>3.177773259844033</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.530309589581566</v>
+        <v>7.736503048831595</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7943704804088745</v>
+        <v>0.7071168822831997</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1619540737786906</v>
+        <v>0.1753796225718395</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05409344642668815</v>
+        <v>0.05098774458142042</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1345456474309011</v>
+        <v>0.1392294869712439</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.01908900466488997</v>
+        <v>0.0143850340660641</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.98267437684919</v>
+        <v>19.32702476936079</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.9933829282721</v>
+        <v>13.63242818301209</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18.32841540658513</v>
+        <v>18.25248421674849</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.08467936420356</v>
+        <v>10.58282335215529</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.442101331413073</v>
+        <v>0.4286181063958124</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.245468971660484</v>
+        <v>0.2352799886734723</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3668751387569644</v>
+        <v>0.3689042237097092</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2793009788643765</v>
+        <v>0.2625927402145657</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>13.94285016265184</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8.779400524007929</v>
+        <v>8.77940052400794</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3396750893336287</v>
@@ -749,7 +749,7 @@
         <v>0.2697813068771305</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2189881521215547</v>
+        <v>0.218988152121555</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>11.35767077824517</v>
+        <v>12.13026616031573</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>12.67455277753081</v>
+        <v>12.26910789686195</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9.630681357193962</v>
+        <v>9.556184249950855</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.969098127669841</v>
+        <v>4.309402299473206</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2219791254372907</v>
+        <v>0.2379781488800274</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2245619299192435</v>
+        <v>0.215219871383584</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1782788146269682</v>
+        <v>0.1736999961877844</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.08822853387818888</v>
+        <v>0.1061828399411121</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>21.37213062088488</v>
+        <v>21.24130051597156</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>21.3979551301054</v>
+        <v>21.1250399711443</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>18.1301045655099</v>
+        <v>18.70905484280916</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13.30806927330424</v>
+        <v>12.85139319677951</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4663441978028042</v>
+        <v>0.4588009021124158</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4198694563629205</v>
+        <v>0.4068874089755795</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.368867894039285</v>
+        <v>0.3770671598009175</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3502911910093738</v>
+        <v>0.3455000943329108</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>11.42250121663964</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.144505042667317</v>
+        <v>3.144505042667312</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2911055681073338</v>
@@ -849,7 +849,7 @@
         <v>0.2351186200066217</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.07937559359585149</v>
+        <v>0.07937559359585133</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.505427757310521</v>
+        <v>8.572248273181769</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>12.51876985295237</v>
+        <v>11.85057696918033</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.56350767585262</v>
+        <v>5.318837077319474</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.607103111756943</v>
+        <v>-1.786204483291283</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1620501228584752</v>
+        <v>0.1647519455663772</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.238941014318034</v>
+        <v>0.2291915091436509</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1259611672327944</v>
+        <v>0.1078649993487283</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.03565796129702971</v>
+        <v>-0.04299238918683825</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>19.51564420112324</v>
+        <v>19.55830785294326</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>22.82031416669304</v>
+        <v>22.84945233783822</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.57554091918877</v>
+        <v>15.97082089813246</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.167820581156157</v>
+        <v>8.782847039642915</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4199826773782552</v>
+        <v>0.4266941179387436</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4821868770612658</v>
+        <v>0.4901239155459514</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3582093136184478</v>
+        <v>0.3456578462775428</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2272748356657812</v>
+        <v>0.234486002591852</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>8.159639394244</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8.184111402401811</v>
+        <v>8.1841114024018</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3616245485208387</v>
@@ -949,7 +949,7 @@
         <v>0.1475055131108989</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2260903943268698</v>
+        <v>0.2260903943268694</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>12.32672150595049</v>
+        <v>12.04094992868087</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.117151504159112</v>
+        <v>6.177354073221106</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.502543844891779</v>
+        <v>4.09835874334749</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.935086761546073</v>
+        <v>4.240608612022131</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2527386749165108</v>
+        <v>0.2509147645134225</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1004084218534469</v>
+        <v>0.1045631824924727</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05954733731033753</v>
+        <v>0.07106883523339416</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1014660779306435</v>
+        <v>0.107582192867602</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>20.94865705425714</v>
+        <v>21.06500890400483</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>15.20642304944398</v>
+        <v>14.62401359052986</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.53474200381939</v>
+        <v>12.71249809532182</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.27956270328768</v>
+        <v>12.79075749093503</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4748138924270978</v>
+        <v>0.4770393165046843</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2763062312381339</v>
+        <v>0.2655191763186719</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2391466590902852</v>
+        <v>0.2429454010823714</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3595890535690582</v>
+        <v>0.3777093214182335</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>11.51821420740736</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.690028481940424</v>
+        <v>6.690028481940419</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3257058095555859</v>
@@ -1049,7 +1049,7 @@
         <v>0.2205579748728734</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1690599174244742</v>
+        <v>0.1690599174244741</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>13.16139460562206</v>
+        <v>13.09675356709065</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>11.16224201342827</v>
+        <v>11.18381778181287</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9.122124008269882</v>
+        <v>9.389557044034008</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.3448506925273</v>
+        <v>4.228004049743769</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2666472428326803</v>
+        <v>0.2663817673726508</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1954888196026765</v>
+        <v>0.1968137673649316</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1702490914211436</v>
+        <v>0.1749809684107257</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1052609961000524</v>
+        <v>0.1032457727068987</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.88869789836028</v>
+        <v>17.92544788151794</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.6611846969553</v>
+        <v>16.00776443195184</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.9647070161437</v>
+        <v>13.95714138666214</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.91528508505772</v>
+        <v>9.010323541203334</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3831249424973286</v>
+        <v>0.383100304724415</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2869293908207215</v>
+        <v>0.296273160784856</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2734821446831717</v>
+        <v>0.2721966406274905</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2337127981824041</v>
+        <v>0.2357250941146675</v>
       </c>
     </row>
     <row r="19">
